--- a/Template/Export/Sari_Cases_3.xlsx
+++ b/Template/Export/Sari_Cases_3.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10320" tabRatio="500"/>
   </bookViews>
@@ -75,9 +80,6 @@
     <t>sexo</t>
   </si>
   <si>
-    <t>Occupation</t>
-  </si>
-  <si>
     <t>TrabajoDirecc</t>
   </si>
   <si>
@@ -87,18 +89,6 @@
     <t>ContactoAnimVivos</t>
   </si>
   <si>
-    <t>OcupacMercAnimVivos</t>
-  </si>
-  <si>
-    <t>pais</t>
-  </si>
-  <si>
-    <t>departamento</t>
-  </si>
-  <si>
-    <t>municipio</t>
-  </si>
-  <si>
     <t>Zona/Comunidad</t>
   </si>
   <si>
@@ -117,21 +107,6 @@
     <t>longitud</t>
   </si>
   <si>
-    <t>CountryID2weeks</t>
-  </si>
-  <si>
-    <t>AreaID2weeks</t>
-  </si>
-  <si>
-    <t>StateID2weeks</t>
-  </si>
-  <si>
-    <t>NeighborhoodID2weeks</t>
-  </si>
-  <si>
-    <t>ViajePrevSintoma</t>
-  </si>
-  <si>
     <t>DestPrevSintoma1</t>
   </si>
   <si>
@@ -201,9 +176,6 @@
     <t>fecha_segunda_dosis</t>
   </si>
   <si>
-    <t>neumococo</t>
-  </si>
-  <si>
     <t>neumococo_fecha</t>
   </si>
   <si>
@@ -339,9 +311,6 @@
     <t>AlteracEstadoMental</t>
   </si>
   <si>
-    <t>Altralgia</t>
-  </si>
-  <si>
     <t>Escalofrios</t>
   </si>
   <si>
@@ -363,9 +332,6 @@
     <t>FalloDesarrollo</t>
   </si>
   <si>
-    <t>Hepatomegalea</t>
-  </si>
-  <si>
     <t>Ictericia</t>
   </si>
   <si>
@@ -733,6 +699,45 @@
   </si>
   <si>
     <t>comorbilidades</t>
+  </si>
+  <si>
+    <t>Trabajo</t>
+  </si>
+  <si>
+    <t>TrabajoMercAnimVivos</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>IDPaísViaje.2Sem.Pre.Inici.Sint</t>
+  </si>
+  <si>
+    <t>IDArea.2Sem.Pre.Inici.Sint</t>
+  </si>
+  <si>
+    <t>IDEstado.2Sem.Pre.Inici.Sint</t>
+  </si>
+  <si>
+    <t>IDBarrio.2Sem.Pre.Inici.Sint</t>
+  </si>
+  <si>
+    <t>Viaje.2SemPrevSintoma</t>
+  </si>
+  <si>
+    <t>Vac_Neumococo</t>
+  </si>
+  <si>
+    <t>Artralgia</t>
+  </si>
+  <si>
+    <t>Hepatomegalia</t>
   </si>
 </sst>
 </file>
@@ -786,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -801,6 +806,9 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1145,10 +1153,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
@@ -1164,6 +1172,8 @@
     <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.875" style="7" bestFit="1" customWidth="1"/>
@@ -1244,7 +1254,7 @@
     <col min="112" max="112" width="12.625" style="9" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="13.625" style="9" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="6.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="23" style="9" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="14.25" style="9" customWidth="1"/>
     <col min="116" max="116" width="18.5" style="7" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="18.625" style="7" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="22.125" style="9" bestFit="1" customWidth="1"/>
@@ -1360,674 +1370,674 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AM1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AN1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AO1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AP1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AR1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AS1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AT1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AV1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AW1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AX1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AY1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="BA1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="BB1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="BC1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="BD1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="BE1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="BF1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="BG1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="BH1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="BI1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BK1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BL1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BM1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BP1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BS1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BT1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BV1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BY1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="CB1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="CC1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="CD1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CN1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="CO1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="CP1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CR1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CU1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="CV1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="CW1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="CX1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="CY1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="CZ1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="DA1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="DB1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="DC1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="DD1" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="DE1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="DF1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="DG1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="DH1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="DI1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="DJ1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="DK1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="DL1" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="BQ1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="DM1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" s="10" t="s">
+      <c r="DN1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="DB1" s="10" t="s">
+      <c r="DO1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="DC1" s="10" t="s">
+      <c r="DP1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="DD1" s="10" t="s">
+      <c r="DQ1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="DE1" s="10" t="s">
+      <c r="DR1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="DF1" s="10" t="s">
+      <c r="DS1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="DG1" s="10" t="s">
+      <c r="DT1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="DH1" s="10" t="s">
+      <c r="DU1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="DI1" s="10" t="s">
+      <c r="DV1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="DJ1" s="10" t="s">
+      <c r="DW1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="DK1" s="10" t="s">
+      <c r="DX1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="DL1" s="10" t="s">
+      <c r="DY1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="10" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="10" t="s">
+      <c r="EA1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="10" t="s">
+      <c r="EB1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="10" t="s">
+      <c r="EC1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="10" t="s">
+      <c r="ED1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="10" t="s">
+      <c r="EE1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="10" t="s">
+      <c r="EF1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" s="10" t="s">
+      <c r="EG1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="10" t="s">
+      <c r="EH1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" s="10" t="s">
+      <c r="EI1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="10" t="s">
+      <c r="EJ1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="10" t="s">
+      <c r="EK1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="EL1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EM1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="EA1" s="6" t="s">
+      <c r="EN1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="EB1" s="12" t="s">
+      <c r="EO1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" s="6" t="s">
+      <c r="EP1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="10" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="11" t="s">
+      <c r="ER1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="3" t="s">
+      <c r="ES1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="6" t="s">
+      <c r="ET1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="12" t="s">
+      <c r="EU1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="6" t="s">
+      <c r="EV1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="3" t="s">
+      <c r="EW1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EX1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EY1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" s="6" t="s">
+      <c r="EZ1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" s="6" t="s">
+      <c r="FA1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="FB1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" s="8" t="s">
+      <c r="FC1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="FD1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" s="6" t="s">
+      <c r="FE1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="FF1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="ET1" s="6" t="s">
+      <c r="FG1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="FH1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" s="6" t="s">
+      <c r="FI1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="6" t="s">
+      <c r="FK1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="FL1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="FM1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="6" t="s">
+      <c r="FN1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" s="3" t="s">
+      <c r="FO1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="6" t="s">
+      <c r="FP1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" s="6" t="s">
+      <c r="FS1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FT1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FU1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FV1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FW1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FX1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FY1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FZ1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="GA1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="GB1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="GC1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="GD1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="GE1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="GF1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="FT1" s="8" t="s">
+      <c r="GG1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="GH1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="FU1" s="8" t="s">
+      <c r="GI1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="FV1" s="8" t="s">
+      <c r="GJ1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="FW1" s="8" t="s">
+      <c r="GK1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="FX1" s="6" t="s">
+      <c r="GL1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="FY1" s="6" t="s">
+      <c r="GM1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="FZ1" s="8" t="s">
+      <c r="GN1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="GA1" s="8" t="s">
+      <c r="GO1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="GB1" s="8" t="s">
+      <c r="GP1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="GC1" s="8" t="s">
+      <c r="GQ1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="GD1" s="8" t="s">
+      <c r="GR1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="GE1" s="8" t="s">
+      <c r="GS1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="GF1" s="8" t="s">
+      <c r="GT1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="GG1" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="GH1" s="8" t="s">
+      <c r="GU1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="GI1" s="6" t="s">
+      <c r="GV1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="GJ1" s="6" t="s">
+      <c r="GW1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="GK1" s="8" t="s">
+      <c r="GX1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="GL1" s="8" t="s">
+      <c r="GY1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="GM1" s="8" t="s">
+      <c r="GZ1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="GN1" s="8" t="s">
+      <c r="HA1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="GO1" s="8" t="s">
+      <c r="HB1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="GP1" s="8" t="s">
+      <c r="HC1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="HD1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="GQ1" s="8" t="s">
+      <c r="HE1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="GR1" s="8" t="s">
+      <c r="HF1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="GS1" s="8" t="s">
+      <c r="HG1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="GT1" s="6" t="s">
+      <c r="HH1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="GU1" s="6" t="s">
+      <c r="HI1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="GV1" s="8" t="s">
+      <c r="HJ1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="GW1" s="8" t="s">
+      <c r="HK1" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="GX1" s="8" t="s">
+      <c r="HL1" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="GY1" s="8" t="s">
+      <c r="HM1" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="GZ1" s="8" t="s">
+      <c r="HN1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="HA1" s="8" t="s">
+      <c r="HO1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="HB1" s="8" t="s">
+      <c r="HP1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="HC1" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="HD1" s="8" t="s">
+      <c r="HQ1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="HE1" s="6" t="s">
+      <c r="HR1" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="HF1" s="6" t="s">
+      <c r="HS1" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="HG1" s="8" t="s">
+      <c r="HT1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="HH1" s="8" t="s">
+      <c r="HU1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="HI1" s="8" t="s">
+      <c r="HV1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="HJ1" s="8" t="s">
+      <c r="HW1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="HK1" s="8" t="s">
+      <c r="HX1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="HL1" s="8" t="s">
+      <c r="HY1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="HZ1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="HM1" s="8" t="s">
+      <c r="IA1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="HN1" s="8" t="s">
+      <c r="IB1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="HO1" s="8" t="s">
+      <c r="IC1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="HP1" s="6" t="s">
+      <c r="ID1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="HQ1" s="6" t="s">
+      <c r="IE1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="HR1" s="8" t="s">
+      <c r="IF1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="HS1" s="8" t="s">
+      <c r="IG1" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="HT1" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="HU1" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="HV1" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="HW1" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="HX1" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="HY1" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="HZ1" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="IA1" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="IB1" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="IC1" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="ID1" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="IE1" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="IF1" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="IG1" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="IH1" s="8"/>
       <c r="II1" s="9"/>

--- a/Template/Export/Sari_Cases_3.xlsx
+++ b/Template/Export/Sari_Cases_3.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="241">
   <si>
     <t>ID</t>
   </si>
@@ -738,6 +738,15 @@
   </si>
   <si>
     <t>Hepatomegalia</t>
+  </si>
+  <si>
+    <t>Grupo_Genético_1</t>
+  </si>
+  <si>
+    <t>Grupo_Genético_2</t>
+  </si>
+  <si>
+    <t>Grupo_Genético_3</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1158,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:II1"/>
+  <dimension ref="A1:IL1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1301,21 +1310,29 @@
     <col min="161" max="161" width="18.625" style="7" bestFit="1" customWidth="1"/>
     <col min="162" max="162" width="22.125" style="7" bestFit="1" customWidth="1"/>
     <col min="163" max="163" width="18.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="14.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="15.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="13.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="168" max="171" width="26.25" style="9" customWidth="1"/>
-    <col min="172" max="172" width="26.25" style="7" customWidth="1"/>
-    <col min="173" max="173" width="18.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="174" max="179" width="11" style="9" customWidth="1"/>
-    <col min="180" max="180" width="19.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="19.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="19.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="19.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="16.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="17.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="15.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="16.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="17.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="15.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="17.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="15.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="179" max="182" width="11" style="9" customWidth="1"/>
+    <col min="183" max="183" width="19.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="19.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="19.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="19.375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:243" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:246" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1817,230 +1834,239 @@
       <c r="FK1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FL1" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="FM1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FN1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FO1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FP1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FQ1" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="FR1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FS1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FT1" s="8" t="s">
+      <c r="FV1" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="FW1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="FU1" s="8" t="s">
+      <c r="FX1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="FV1" s="8" t="s">
+      <c r="FY1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="FW1" s="8" t="s">
+      <c r="FZ1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="FX1" s="6" t="s">
+      <c r="GA1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="FY1" s="6" t="s">
+      <c r="GB1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="FZ1" s="8" t="s">
+      <c r="GC1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="GA1" s="8" t="s">
+      <c r="GD1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="GB1" s="8" t="s">
+      <c r="GE1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="GC1" s="8" t="s">
+      <c r="GF1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="GD1" s="8" t="s">
+      <c r="GG1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="GE1" s="8" t="s">
+      <c r="GH1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="GF1" s="8" t="s">
+      <c r="GI1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="GG1" s="8" t="s">
+      <c r="GJ1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="GH1" s="8" t="s">
+      <c r="GK1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="GI1" s="6" t="s">
+      <c r="GL1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="GJ1" s="6" t="s">
+      <c r="GM1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="GK1" s="8" t="s">
+      <c r="GN1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="GL1" s="8" t="s">
+      <c r="GO1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="GM1" s="8" t="s">
+      <c r="GP1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="GN1" s="8" t="s">
+      <c r="GQ1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="GO1" s="8" t="s">
+      <c r="GR1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="GP1" s="8" t="s">
+      <c r="GS1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="GQ1" s="8" t="s">
+      <c r="GT1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="GR1" s="8" t="s">
+      <c r="GU1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="GS1" s="8" t="s">
+      <c r="GV1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="GT1" s="6" t="s">
+      <c r="GW1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="GU1" s="6" t="s">
+      <c r="GX1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="GV1" s="8" t="s">
+      <c r="GY1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="GW1" s="8" t="s">
+      <c r="GZ1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="GX1" s="8" t="s">
+      <c r="HA1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="GY1" s="8" t="s">
+      <c r="HB1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="GZ1" s="8" t="s">
+      <c r="HC1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="HA1" s="8" t="s">
+      <c r="HD1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="HB1" s="8" t="s">
+      <c r="HE1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="HC1" s="8" t="s">
+      <c r="HF1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="HD1" s="8" t="s">
+      <c r="HG1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="HE1" s="6" t="s">
+      <c r="HH1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="HF1" s="6" t="s">
+      <c r="HI1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="HG1" s="8" t="s">
+      <c r="HJ1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="HH1" s="8" t="s">
+      <c r="HK1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="HI1" s="8" t="s">
+      <c r="HL1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="HJ1" s="8" t="s">
+      <c r="HM1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="HK1" s="8" t="s">
+      <c r="HN1" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="HL1" s="8" t="s">
+      <c r="HO1" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="HM1" s="8" t="s">
+      <c r="HP1" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="HN1" s="8" t="s">
+      <c r="HQ1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="HO1" s="8" t="s">
+      <c r="HR1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="HP1" s="6" t="s">
+      <c r="HS1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="HQ1" s="6" t="s">
+      <c r="HT1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="HR1" s="8" t="s">
+      <c r="HU1" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="HS1" s="8" t="s">
+      <c r="HV1" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="HT1" s="8" t="s">
+      <c r="HW1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="HU1" s="8" t="s">
+      <c r="HX1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="HV1" s="8" t="s">
+      <c r="HY1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="HW1" s="8" t="s">
+      <c r="HZ1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="HX1" s="8" t="s">
+      <c r="IA1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="HY1" s="8" t="s">
+      <c r="IB1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="HZ1" s="8" t="s">
+      <c r="IC1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="IA1" s="6" t="s">
+      <c r="ID1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="IB1" s="6" t="s">
+      <c r="IE1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="IC1" s="8" t="s">
+      <c r="IF1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="ID1" s="8" t="s">
+      <c r="IG1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="IE1" s="8" t="s">
+      <c r="IH1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="IF1" s="8" t="s">
+      <c r="II1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="IG1" s="8" t="s">
+      <c r="IJ1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="IH1" s="8"/>
-      <c r="II1" s="9"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Template/Export/Sari_Cases_3.xlsx
+++ b/Template/Export/Sari_Cases_3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="243">
   <si>
     <t>ID</t>
   </si>
@@ -747,12 +747,18 @@
   </si>
   <si>
     <t>Grupo_Genético_3</t>
+  </si>
+  <si>
+    <t>identificador_muestra</t>
+  </si>
+  <si>
+    <t>temperatura_muestra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
@@ -1158,7 +1164,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:IL1"/>
+  <dimension ref="A1:IN1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1307,32 +1313,33 @@
     <col min="158" max="158" width="25.625" style="9" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="23" style="7" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="18.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="18.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="22.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="18.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="16.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="17.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="15.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="17.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="16.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="17.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="15.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="17.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="17.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="15.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="17.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="179" max="182" width="11" style="9" customWidth="1"/>
-    <col min="183" max="183" width="19.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="19.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="19.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="19.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="161" max="162" width="20.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="21.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="22.125" style="7" customWidth="1"/>
+    <col min="165" max="165" width="18.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="16.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="17.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="15.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="16.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="17.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="15.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="17.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="15.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="181" max="184" width="11" style="9" customWidth="1"/>
+    <col min="185" max="185" width="19.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="19.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="19.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="19.375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:246" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:248" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1813,260 +1820,266 @@
       <c r="FD1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="FE1" s="2" t="s">
+      <c r="FE1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="FF1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="FG1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="FF1" s="6" t="s">
+      <c r="FH1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="FG1" s="2" t="s">
+      <c r="FI1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="FH1" s="2" t="s">
+      <c r="FJ1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FK1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="FJ1" s="2" t="s">
+      <c r="FL1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="FK1" s="2" t="s">
+      <c r="FM1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="FL1" s="8" t="s">
+      <c r="FN1" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FO1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FP1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FQ1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FR1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FQ1" s="8" t="s">
+      <c r="FS1" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FT1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FU1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FV1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FW1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="FV1" s="8" t="s">
+      <c r="FX1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="FW1" s="8" t="s">
+      <c r="FY1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="FX1" s="8" t="s">
+      <c r="FZ1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="FY1" s="8" t="s">
+      <c r="GA1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="FZ1" s="8" t="s">
+      <c r="GB1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="GA1" s="6" t="s">
+      <c r="GC1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="GB1" s="6" t="s">
+      <c r="GD1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="GC1" s="8" t="s">
+      <c r="GE1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="GD1" s="8" t="s">
+      <c r="GF1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="GE1" s="8" t="s">
+      <c r="GG1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="GF1" s="8" t="s">
+      <c r="GH1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="GG1" s="8" t="s">
+      <c r="GI1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="GH1" s="8" t="s">
+      <c r="GJ1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="GI1" s="8" t="s">
+      <c r="GK1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="GJ1" s="8" t="s">
+      <c r="GL1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="GK1" s="8" t="s">
+      <c r="GM1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="GL1" s="6" t="s">
+      <c r="GN1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="GM1" s="6" t="s">
+      <c r="GO1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="GN1" s="8" t="s">
+      <c r="GP1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="GO1" s="8" t="s">
+      <c r="GQ1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="GP1" s="8" t="s">
+      <c r="GR1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="GQ1" s="8" t="s">
+      <c r="GS1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="GR1" s="8" t="s">
+      <c r="GT1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="GS1" s="8" t="s">
+      <c r="GU1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="GT1" s="8" t="s">
+      <c r="GV1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="GU1" s="8" t="s">
+      <c r="GW1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="GV1" s="8" t="s">
+      <c r="GX1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="GW1" s="6" t="s">
+      <c r="GY1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="GX1" s="6" t="s">
+      <c r="GZ1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="GY1" s="8" t="s">
+      <c r="HA1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="GZ1" s="8" t="s">
+      <c r="HB1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="HA1" s="8" t="s">
+      <c r="HC1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="HB1" s="8" t="s">
+      <c r="HD1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="HC1" s="8" t="s">
+      <c r="HE1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="HD1" s="8" t="s">
+      <c r="HF1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="HE1" s="8" t="s">
+      <c r="HG1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="HF1" s="8" t="s">
+      <c r="HH1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="HG1" s="8" t="s">
+      <c r="HI1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="HH1" s="6" t="s">
+      <c r="HJ1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="HI1" s="6" t="s">
+      <c r="HK1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="HJ1" s="8" t="s">
+      <c r="HL1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="HK1" s="8" t="s">
+      <c r="HM1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="HL1" s="8" t="s">
+      <c r="HN1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="HM1" s="8" t="s">
+      <c r="HO1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="HN1" s="8" t="s">
+      <c r="HP1" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="HO1" s="8" t="s">
+      <c r="HQ1" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="HP1" s="8" t="s">
+      <c r="HR1" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="HQ1" s="8" t="s">
+      <c r="HS1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="HR1" s="8" t="s">
+      <c r="HT1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="HS1" s="6" t="s">
+      <c r="HU1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="HT1" s="6" t="s">
+      <c r="HV1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="HU1" s="8" t="s">
+      <c r="HW1" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="HV1" s="8" t="s">
+      <c r="HX1" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="HW1" s="8" t="s">
+      <c r="HY1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="HX1" s="8" t="s">
+      <c r="HZ1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="HY1" s="8" t="s">
+      <c r="IA1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="HZ1" s="8" t="s">
+      <c r="IB1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="IA1" s="8" t="s">
+      <c r="IC1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="IB1" s="8" t="s">
+      <c r="ID1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="IC1" s="8" t="s">
+      <c r="IE1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="ID1" s="6" t="s">
+      <c r="IF1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="IE1" s="6" t="s">
+      <c r="IG1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="IF1" s="8" t="s">
+      <c r="IH1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="IG1" s="8" t="s">
+      <c r="II1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="IH1" s="8" t="s">
+      <c r="IJ1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="II1" s="8" t="s">
+      <c r="IK1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="IJ1" s="8" t="s">
+      <c r="IL1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="IK1" s="8"/>
-      <c r="IL1" s="9"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Template/Export/Sari_Cases_3.xlsx
+++ b/Template/Export/Sari_Cases_3.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4BC386-1AA3-4BC2-9AD4-757EC060B296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10320" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>ID</t>
   </si>
@@ -518,9 +525,6 @@
     <t>numero_muestra_proceso_1</t>
   </si>
   <si>
-    <t>motivo_no_procesado_proceso_1</t>
-  </si>
-  <si>
     <t>fecha_ini_proceso_1</t>
   </si>
   <si>
@@ -548,9 +552,6 @@
     <t>procesado_proceso_2</t>
   </si>
   <si>
-    <t>motivo_no_procesado_proceso_2</t>
-  </si>
-  <si>
     <t>fecha_ini_proceso_2</t>
   </si>
   <si>
@@ -581,9 +582,6 @@
     <t>numero_muestra_proceso_3</t>
   </si>
   <si>
-    <t>motivo_no_procesado_proceso_3</t>
-  </si>
-  <si>
     <t>fecha_ini_proceso_3</t>
   </si>
   <si>
@@ -611,9 +609,6 @@
     <t>procesado_proceso_4</t>
   </si>
   <si>
-    <t>motivo_no_procesado_proceso_4</t>
-  </si>
-  <si>
     <t>fecha_ini_proceso_4</t>
   </si>
   <si>
@@ -644,9 +639,6 @@
     <t>numero_muestra_proceso_5</t>
   </si>
   <si>
-    <t>motivo_no_procesado_proceso_5</t>
-  </si>
-  <si>
     <t>fecha_ini_proceso_5</t>
   </si>
   <si>
@@ -674,9 +666,6 @@
     <t>procesado_proceso_6</t>
   </si>
   <si>
-    <t>motivo_no_procesado_proceso_6</t>
-  </si>
-  <si>
     <t>fecha_ini_proceso_6</t>
   </si>
   <si>
@@ -753,15 +742,88 @@
   </si>
   <si>
     <t>temperatura_muestra</t>
+  </si>
+  <si>
+    <t>motivo_toma_muestra_NO</t>
+  </si>
+  <si>
+    <t>motivo_toma_muestra_NO_Otro</t>
+  </si>
+  <si>
+    <t>motivo_no_procesado_otro</t>
+  </si>
+  <si>
+    <t>observaciones_proceso_1</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_1</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_1</t>
+  </si>
+  <si>
+    <t>numero_muestra_proceso_2</t>
+  </si>
+  <si>
+    <t>observaciones_proceso_2</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_2</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_2</t>
+  </si>
+  <si>
+    <t>observaciones_proceso_3</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_3</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_3</t>
+  </si>
+  <si>
+    <t>numero_muestra_proceso_4</t>
+  </si>
+  <si>
+    <t>observaciones_proceso_4</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_4</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_4</t>
+  </si>
+  <si>
+    <t>observaciones_proceso_5</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_5</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_5</t>
+  </si>
+  <si>
+    <t>numero_muestra_proceso_6</t>
+  </si>
+  <si>
+    <t>observaciones_proceso_6</t>
+  </si>
+  <si>
+    <t>otro_virus_proceso_6</t>
+  </si>
+  <si>
+    <t>otro2_virus_proceso_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-40A]dd/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -806,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -824,6 +886,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,16 +1239,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:IN1"/>
+  <dimension ref="A1:JA1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
@@ -1300,46 +1377,122 @@
     <col min="144" max="144" width="18.625" style="9" bestFit="1" customWidth="1"/>
     <col min="145" max="146" width="20.625" style="9" customWidth="1"/>
     <col min="147" max="147" width="16.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="20.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="18.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="19.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="25.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="23" style="9" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="18.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="18.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="17.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="19.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="25.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="23" style="7" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="18.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="161" max="162" width="20.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="21.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="22.125" style="7" customWidth="1"/>
-    <col min="165" max="165" width="18.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="16.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="17.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="15.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="17.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="16.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="17.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="15.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="17.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="17.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="15.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="17.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="181" max="184" width="11" style="9" customWidth="1"/>
-    <col min="185" max="185" width="19.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="19.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="19.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="19.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="25.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="30.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="20.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="19.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="25.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="23" style="9" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="18.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="18.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="17.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="19.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="25.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="23" style="7" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="18.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="20.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="26.75" style="7" customWidth="1"/>
+    <col min="166" max="166" width="30.5" style="7" customWidth="1"/>
+    <col min="167" max="167" width="22.125" style="7" customWidth="1"/>
+    <col min="168" max="168" width="18.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="16.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="17.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="15.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="16.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="17.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="15.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="17.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="15.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="17.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="13.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="20.625" style="19" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="26.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="18.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="19.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="19.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="23.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="19.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="15.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="20.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="21.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="18.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="15.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="13.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="20.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="26.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="13" style="20" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="19.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="19.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="23.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="19.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="15.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="20.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="21.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="18.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="15.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="13.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="20.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="26.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="13.625" style="20" customWidth="1"/>
+    <col min="214" max="214" width="19.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="19.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="23.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="19.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="15.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="20.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="21.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="18.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="15.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="13.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="20.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="26.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="12.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="19.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="19.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="23.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="19.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="15.375" style="20" customWidth="1"/>
+    <col min="232" max="232" width="20.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="21.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="18.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="15.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="13.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="20.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="26.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="13" style="20" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="19.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="19.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="23.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="19.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="15.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="20.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="21.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="18.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="15.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="13.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="20.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="26.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="12.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="19.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="19.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="23.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="19.625" style="20" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="15.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="20.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="21.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="18.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="15.875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:248" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:261" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1548,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="T1" s="10" t="s">
         <v>18</v>
@@ -1407,16 +1560,16 @@
         <v>20</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>21</v>
@@ -1437,19 +1590,19 @@
         <v>26</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AH1" s="10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AJ1" s="10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AL1" s="10" t="s">
         <v>27</v>
@@ -1521,7 +1674,7 @@
         <v>49</v>
       </c>
       <c r="BI1" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="BJ1" s="6" t="s">
         <v>50</v>
@@ -1542,7 +1695,7 @@
         <v>55</v>
       </c>
       <c r="BP1" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BQ1" s="2" t="s">
         <v>56</v>
@@ -1662,7 +1815,7 @@
         <v>94</v>
       </c>
       <c r="DD1" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="DE1" s="10" t="s">
         <v>95</v>
@@ -1686,7 +1839,7 @@
         <v>101</v>
       </c>
       <c r="DL1" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="DM1" s="10" t="s">
         <v>102</v>
@@ -1781,305 +1934,348 @@
       <c r="EQ1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="ER1" s="6" t="s">
+      <c r="ER1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="ES1" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="ET1" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="ES1" s="2" t="s">
+      <c r="EU1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="ET1" s="6" t="s">
+      <c r="EV1" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="EW1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="EV1" s="6" t="s">
+      <c r="EX1" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="EY1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="EX1" s="6" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="FA1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="EZ1" s="2" t="s">
+      <c r="FB1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="FA1" s="6" t="s">
+      <c r="FC1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="FB1" s="3" t="s">
+      <c r="FD1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="FC1" s="6" t="s">
+      <c r="FE1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="FD1" s="2" t="s">
+      <c r="FF1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="FE1" s="8" t="s">
+      <c r="FG1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="FH1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="FI1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="FJ1" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="FK1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="FL1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="FM1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="FN1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="FO1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="FP1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="FQ1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="FR1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="FS1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="FT1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="FU1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="FV1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="FW1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="FX1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="FY1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="FZ1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="GA1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="GB1" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="GC1" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="GD1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="GE1" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="GF1" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="GG1" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="GH1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="GI1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="GJ1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="GK1" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="FF1" s="8" t="s">
+      <c r="GL1" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="FG1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="FH1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="FI1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="FJ1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="FK1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="FL1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="FM1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="FN1" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="FO1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="FP1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="FQ1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="FR1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="FS1" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="FT1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="FU1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="FV1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="FW1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="FX1" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="FY1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="FZ1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="GA1" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="GB1" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="GC1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="GD1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="GE1" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="GF1" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="GG1" s="8" t="s">
+      <c r="GM1" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="GH1" s="8" t="s">
+      <c r="GN1" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="GI1" s="8" t="s">
+      <c r="GO1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="GJ1" s="8" t="s">
+      <c r="GP1" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="GK1" s="8" t="s">
+      <c r="GQ1" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="GR1" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="GL1" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="GM1" s="8" t="s">
+      <c r="GT1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="GN1" s="6" t="s">
+      <c r="GU1" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="GO1" s="6" t="s">
+      <c r="GV1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="GP1" s="8" t="s">
+      <c r="GW1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="GQ1" s="8" t="s">
+      <c r="GX1" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="GY1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="GZ1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="GR1" s="8" t="s">
+      <c r="HA1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="GS1" s="8" t="s">
+      <c r="HB1" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="GT1" s="8" t="s">
+      <c r="HC1" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="GU1" s="8" t="s">
+      <c r="HD1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="GV1" s="8" t="s">
+      <c r="HE1" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="HF1" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="GW1" s="8" t="s">
+      <c r="HG1" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="GX1" s="8" t="s">
+      <c r="HH1" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="GY1" s="6" t="s">
+      <c r="HI1" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="GZ1" s="6" t="s">
+      <c r="HJ1" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="HA1" s="8" t="s">
+      <c r="HK1" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="HL1" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="HM1" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="HB1" s="8" t="s">
+      <c r="HN1" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="HC1" s="8" t="s">
+      <c r="HO1" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="HD1" s="8" t="s">
+      <c r="HP1" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="HE1" s="8" t="s">
+      <c r="HQ1" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="HR1" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="HS1" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="HF1" s="8" t="s">
+      <c r="HT1" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="HG1" s="8" t="s">
+      <c r="HU1" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="HH1" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="HI1" s="8" t="s">
+      <c r="HV1" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="HJ1" s="6" t="s">
+      <c r="HW1" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="HK1" s="6" t="s">
+      <c r="HX1" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="HY1" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="HZ1" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="HL1" s="8" t="s">
+      <c r="IA1" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="HM1" s="8" t="s">
+      <c r="IB1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="HN1" s="8" t="s">
+      <c r="IC1" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="HO1" s="8" t="s">
+      <c r="ID1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="HP1" s="8" t="s">
+      <c r="IE1" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="IF1" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="HQ1" s="8" t="s">
+      <c r="IG1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="HR1" s="8" t="s">
+      <c r="IH1" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="HS1" s="8" t="s">
+      <c r="II1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="HT1" s="8" t="s">
+      <c r="IJ1" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="HU1" s="6" t="s">
+      <c r="IK1" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="IL1" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="IM1" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="HV1" s="6" t="s">
+      <c r="IN1" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="HW1" s="8" t="s">
+      <c r="IO1" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="HX1" s="8" t="s">
+      <c r="IP1" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="HY1" s="8" t="s">
+      <c r="IQ1" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="IR1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="IS1" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="HZ1" s="8" t="s">
+      <c r="IT1" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="IA1" s="8" t="s">
+      <c r="IU1" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="IB1" s="8" t="s">
+      <c r="IV1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="IC1" s="8" t="s">
+      <c r="IW1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="ID1" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="IE1" s="8" t="s">
+      <c r="IX1" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="IY1" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="IZ1" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="IF1" s="6" t="s">
+      <c r="JA1" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="IG1" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="IH1" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="II1" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="IJ1" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="IK1" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="IL1" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="IM1" s="8"/>
-      <c r="IN1" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Template/Export/Sari_Cases_3.xlsx
+++ b/Template/Export/Sari_Cases_3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4BC386-1AA3-4BC2-9AD4-757EC060B296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>ID</t>
   </si>
@@ -814,12 +813,27 @@
   </si>
   <si>
     <t>otro2_virus_proceso_6</t>
+  </si>
+  <si>
+    <t>Asintomatico</t>
+  </si>
+  <si>
+    <t>Rinorrea</t>
+  </si>
+  <si>
+    <t>Odinofagia</t>
+  </si>
+  <si>
+    <t>Anosmia</t>
+  </si>
+  <si>
+    <t>Disgeusia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
@@ -868,24 +882,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -901,6 +904,27 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,48 +1263,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:JA1"/>
+  <dimension ref="A1:JF1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.375" customWidth="1"/>
-    <col min="20" max="20" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.875" style="3" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.375" style="7" customWidth="1"/>
+    <col min="35" max="35" width="14.375" style="3" customWidth="1"/>
     <col min="36" max="36" width="22" customWidth="1"/>
     <col min="37" max="37" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="17.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="17.75" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="12.875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="19" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="20.25" bestFit="1" customWidth="1"/>
@@ -1293,987 +1317,1007 @@
     <col min="56" max="56" width="8.75" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="19.5" customWidth="1"/>
     <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.75" style="7" customWidth="1"/>
-    <col min="61" max="61" width="15.875" style="7" customWidth="1"/>
-    <col min="62" max="62" width="17.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.75" style="3" customWidth="1"/>
+    <col min="61" max="61" width="15.875" style="3" customWidth="1"/>
+    <col min="62" max="62" width="17.75" style="3" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="12.375" customWidth="1"/>
     <col min="64" max="64" width="8.75" customWidth="1"/>
-    <col min="65" max="65" width="18.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.375" style="3" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.5" style="9" customWidth="1"/>
+    <col min="68" max="68" width="14.5" style="4" customWidth="1"/>
     <col min="69" max="69" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="8.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="8.125" style="3" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="5.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="5.625" style="3" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="18.25" style="7" customWidth="1"/>
+    <col min="74" max="74" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="18.25" style="3" customWidth="1"/>
     <col min="77" max="78" width="18.25" style="1" customWidth="1"/>
     <col min="79" max="79" width="10" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="14.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="19.875" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.75" style="3" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="11.5" style="3" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="11" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="11.125" style="3" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="8.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="19.125" customWidth="1"/>
-    <col min="92" max="92" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="16.75" style="7" customWidth="1"/>
-    <col min="96" max="96" width="12" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="5.375" customWidth="1"/>
-    <col min="98" max="98" width="9.375" style="7" customWidth="1"/>
-    <col min="99" max="99" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="12.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="13.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="6.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="14.25" style="9" customWidth="1"/>
-    <col min="116" max="116" width="18.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="18.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="22.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="18.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="14.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="15.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="19.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="25.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="23" style="9" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="18.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="14.875" style="7" customWidth="1"/>
-    <col min="129" max="129" width="17.625" style="9" customWidth="1"/>
-    <col min="130" max="130" width="16.75" style="9" customWidth="1"/>
-    <col min="131" max="131" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="8.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="11.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="4" style="9" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="19" style="7" customWidth="1"/>
-    <col min="138" max="138" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="15.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="141" max="142" width="15.25" style="9" customWidth="1"/>
-    <col min="143" max="143" width="25.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="18.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="145" max="146" width="20.625" style="9" customWidth="1"/>
-    <col min="147" max="147" width="16.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="25.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="30.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="20.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="18.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="19.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="25.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="23" style="9" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="18.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="18.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="17.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="19.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="25.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="23" style="7" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="18.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="20.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="26.75" style="7" customWidth="1"/>
-    <col min="166" max="166" width="30.5" style="7" customWidth="1"/>
-    <col min="167" max="167" width="22.125" style="7" customWidth="1"/>
-    <col min="168" max="168" width="18.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="16.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="17.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="15.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="17.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="16.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="17.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="15.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="17.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="17.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="15.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="17.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="13.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="20.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="26.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="18.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="19.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="19.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="23.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="19.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="15.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="20.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="21.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="18.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="15.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="13.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="20.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="26.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="13" style="20" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="19.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="19.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="23.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="19.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="15.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="20.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="21.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="18.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="15.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="13.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="20.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="26.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="13.625" style="20" customWidth="1"/>
-    <col min="214" max="214" width="19.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="19.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="23.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="19.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="15.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="20.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="21.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="18.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="15.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="13.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="20.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="26.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="12.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="19.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="19.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="23.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="19.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="15.375" style="20" customWidth="1"/>
-    <col min="232" max="232" width="20.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="21.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="18.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="15.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="13.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="20.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="26.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="13" style="20" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="19.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="19.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="23.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="19.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="15.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="20.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="21.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="18.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="15.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="13.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="20.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="26.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="12.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="19.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="19.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="23.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="19.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="15.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="20.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="21.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="18.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="15.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="13.875" customWidth="1"/>
+    <col min="92" max="92" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="6.875" style="5" customWidth="1"/>
+    <col min="95" max="95" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="5.375" customWidth="1"/>
+    <col min="99" max="99" width="9.375" style="3" customWidth="1"/>
+    <col min="100" max="100" width="12" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="20" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="16" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="12" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="12.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="6.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="14.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.25" style="3" customWidth="1"/>
+    <col min="123" max="123" width="14.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="8.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="8.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="7.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="15.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="18.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="5.625" style="3" customWidth="1"/>
+    <col min="133" max="133" width="15.625" style="3" customWidth="1"/>
+    <col min="134" max="134" width="17.625" style="4" customWidth="1"/>
+    <col min="135" max="135" width="16.75" style="4" customWidth="1"/>
+    <col min="136" max="136" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="19" style="3" customWidth="1"/>
+    <col min="143" max="143" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="146" max="147" width="15.25" style="4" customWidth="1"/>
+    <col min="148" max="148" width="25.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="18.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="150" max="151" width="20.625" style="4" customWidth="1"/>
+    <col min="152" max="152" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="25.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="30.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="20.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="19.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="25.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="18.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="19.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="25.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="20.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="26.75" style="3" customWidth="1"/>
+    <col min="171" max="171" width="30.5" style="3" customWidth="1"/>
+    <col min="172" max="172" width="22.125" style="3" customWidth="1"/>
+    <col min="173" max="173" width="18.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="15.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="15.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="15.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="13.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="20.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="18.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="15.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="20.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="20.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="13.625" style="11" customWidth="1"/>
+    <col min="219" max="219" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="15.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="20.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="12.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="15.375" style="11" customWidth="1"/>
+    <col min="237" max="237" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="15.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="20.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="15.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="20.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="12.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="15.875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:261" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:266" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AO1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AR1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AU1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="AW1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AX1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="AY1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="AZ1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BA1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BH1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BM1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BP1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BW1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BX1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CB1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="CC1" s="10" t="s">
+      <c r="CC1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CD1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CK1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CN1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="CO1" s="12" t="s">
+      <c r="CO1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="CP1" s="12" t="s">
+      <c r="CP1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CQ1" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="CR1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CR1" s="10" t="s">
+      <c r="CS1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CT1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="CU1" s="10" t="s">
+      <c r="CV1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="CV1" s="10" t="s">
+      <c r="CW1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="CW1" s="10" t="s">
+      <c r="CX1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="CX1" s="10" t="s">
+      <c r="CY1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="CY1" s="10" t="s">
+      <c r="CZ1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="DA1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="DA1" s="10" t="s">
+      <c r="DB1" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="DC1" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="DD1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="DE1" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="DF1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="DB1" s="10" t="s">
+      <c r="DG1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="DC1" s="10" t="s">
+      <c r="DH1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="DD1" s="10" t="s">
+      <c r="DI1" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="DE1" s="10" t="s">
+      <c r="DJ1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="DF1" s="10" t="s">
+      <c r="DK1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="DG1" s="10" t="s">
+      <c r="DL1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="DH1" s="10" t="s">
+      <c r="DM1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="DI1" s="10" t="s">
+      <c r="DN1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="DJ1" s="10" t="s">
+      <c r="DO1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="DK1" s="10" t="s">
+      <c r="DP1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="DL1" s="10" t="s">
+      <c r="DQ1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="DM1" s="10" t="s">
+      <c r="DR1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="DN1" s="10" t="s">
+      <c r="DS1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="DO1" s="10" t="s">
+      <c r="DT1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="DP1" s="10" t="s">
+      <c r="DU1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="DQ1" s="10" t="s">
+      <c r="DV1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="DR1" s="10" t="s">
+      <c r="DW1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="DS1" s="10" t="s">
+      <c r="DX1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="DT1" s="10" t="s">
+      <c r="DY1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="DU1" s="10" t="s">
+      <c r="DZ1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="DV1" s="10" t="s">
+      <c r="EA1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="DW1" s="10" t="s">
+      <c r="EB1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="DX1" s="10" t="s">
+      <c r="EC1" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="ED1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EE1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="EA1" s="6" t="s">
+      <c r="EF1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="EB1" s="12" t="s">
+      <c r="EG1" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="EC1" s="6" t="s">
+      <c r="EH1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="ED1" s="10" t="s">
+      <c r="EI1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="EE1" s="11" t="s">
+      <c r="EJ1" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="EF1" s="3" t="s">
+      <c r="EK1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="EG1" s="6" t="s">
+      <c r="EL1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="EH1" s="12" t="s">
+      <c r="EM1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="EI1" s="6" t="s">
+      <c r="EN1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="EJ1" s="3" t="s">
+      <c r="EO1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="EK1" s="3" t="s">
+      <c r="EP1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EQ1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="EM1" s="6" t="s">
+      <c r="ER1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="EN1" s="6" t="s">
+      <c r="ES1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="ET1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="EP1" s="8" t="s">
+      <c r="EU1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="EV1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="ER1" s="15" t="s">
+      <c r="EW1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="ES1" s="15" t="s">
+      <c r="EX1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="ET1" s="6" t="s">
+      <c r="EY1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="EU1" s="2" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="EV1" s="6" t="s">
+      <c r="FA1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="EW1" s="2" t="s">
+      <c r="FB1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="EX1" s="6" t="s">
+      <c r="FC1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="EY1" s="2" t="s">
+      <c r="FD1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="EZ1" s="6" t="s">
+      <c r="FE1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="FA1" s="2" t="s">
+      <c r="FF1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="FB1" s="2" t="s">
+      <c r="FG1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="FC1" s="6" t="s">
+      <c r="FH1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="FD1" s="3" t="s">
+      <c r="FI1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="FE1" s="6" t="s">
+      <c r="FJ1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="FF1" s="2" t="s">
+      <c r="FK1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="FG1" s="8" t="s">
+      <c r="FL1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="FH1" s="8" t="s">
+      <c r="FM1" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="FI1" s="2" t="s">
+      <c r="FN1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="FJ1" s="8" t="s">
+      <c r="FO1" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="FK1" s="6" t="s">
+      <c r="FP1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="FL1" s="2" t="s">
+      <c r="FQ1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="FM1" s="2" t="s">
+      <c r="FR1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="FN1" s="2" t="s">
+      <c r="FS1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FT1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FU1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="FQ1" s="8" t="s">
+      <c r="FV1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FW1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="FS1" s="2" t="s">
+      <c r="FX1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="FT1" s="2" t="s">
+      <c r="FY1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="FU1" s="2" t="s">
+      <c r="FZ1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="FV1" s="8" t="s">
+      <c r="GA1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="FW1" s="2" t="s">
+      <c r="GB1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="FX1" s="2" t="s">
+      <c r="GC1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="FY1" s="2" t="s">
+      <c r="GD1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="FZ1" s="2" t="s">
+      <c r="GE1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="GA1" s="8" t="s">
+      <c r="GF1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="GB1" s="16" t="s">
+      <c r="GG1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="GC1" s="16" t="s">
+      <c r="GH1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="GD1" s="16" t="s">
+      <c r="GI1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="GE1" s="17" t="s">
+      <c r="GJ1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="GF1" s="18" t="s">
+      <c r="GK1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="GG1" s="18" t="s">
+      <c r="GL1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="GH1" s="16" t="s">
+      <c r="GM1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="GI1" s="16" t="s">
+      <c r="GN1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="GJ1" s="16" t="s">
+      <c r="GO1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="GK1" s="16" t="s">
+      <c r="GP1" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="GL1" s="16" t="s">
+      <c r="GQ1" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="GM1" s="16" t="s">
+      <c r="GR1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="GN1" s="16" t="s">
+      <c r="GS1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="GO1" s="16" t="s">
+      <c r="GT1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="GP1" s="16" t="s">
+      <c r="GU1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="GQ1" s="16" t="s">
+      <c r="GV1" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="GR1" s="17" t="s">
+      <c r="GW1" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="GS1" s="18" t="s">
+      <c r="GX1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="GT1" s="18" t="s">
+      <c r="GY1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="GU1" s="16" t="s">
+      <c r="GZ1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="GV1" s="16" t="s">
+      <c r="HA1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="GW1" s="16" t="s">
+      <c r="HB1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="GX1" s="16" t="s">
+      <c r="HC1" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="GY1" s="16" t="s">
+      <c r="HD1" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="GZ1" s="16" t="s">
+      <c r="HE1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="HA1" s="16" t="s">
+      <c r="HF1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="HB1" s="16" t="s">
+      <c r="HG1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="HC1" s="16" t="s">
+      <c r="HH1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="HD1" s="16" t="s">
+      <c r="HI1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="HE1" s="17" t="s">
+      <c r="HJ1" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="HF1" s="18" t="s">
+      <c r="HK1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="HG1" s="18" t="s">
+      <c r="HL1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="HH1" s="16" t="s">
+      <c r="HM1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="HI1" s="16" t="s">
+      <c r="HN1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="HJ1" s="16" t="s">
+      <c r="HO1" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="HK1" s="16" t="s">
+      <c r="HP1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="HL1" s="16" t="s">
+      <c r="HQ1" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="HM1" s="16" t="s">
+      <c r="HR1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="HN1" s="16" t="s">
+      <c r="HS1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="HO1" s="16" t="s">
+      <c r="HT1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="HP1" s="16" t="s">
+      <c r="HU1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="HQ1" s="16" t="s">
+      <c r="HV1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="HR1" s="17" t="s">
+      <c r="HW1" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="HS1" s="18" t="s">
+      <c r="HX1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="HT1" s="18" t="s">
+      <c r="HY1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="HU1" s="16" t="s">
+      <c r="HZ1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="HV1" s="16" t="s">
+      <c r="IA1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="HW1" s="16" t="s">
+      <c r="IB1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="HX1" s="16" t="s">
+      <c r="IC1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="HY1" s="16" t="s">
+      <c r="ID1" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="HZ1" s="16" t="s">
+      <c r="IE1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="IA1" s="16" t="s">
+      <c r="IF1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="IB1" s="16" t="s">
+      <c r="IG1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="IC1" s="16" t="s">
+      <c r="IH1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="ID1" s="16" t="s">
+      <c r="II1" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="IE1" s="17" t="s">
+      <c r="IJ1" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="IF1" s="18" t="s">
+      <c r="IK1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="IG1" s="18" t="s">
+      <c r="IL1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="IH1" s="16" t="s">
+      <c r="IM1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="II1" s="16" t="s">
+      <c r="IN1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="IJ1" s="16" t="s">
+      <c r="IO1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="IK1" s="16" t="s">
+      <c r="IP1" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="IL1" s="16" t="s">
+      <c r="IQ1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="IM1" s="16" t="s">
+      <c r="IR1" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="IN1" s="16" t="s">
+      <c r="IS1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="IO1" s="16" t="s">
+      <c r="IT1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="IP1" s="16" t="s">
+      <c r="IU1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="IQ1" s="16" t="s">
+      <c r="IV1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="IR1" s="17" t="s">
+      <c r="IW1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="IS1" s="18" t="s">
+      <c r="IX1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="IT1" s="18" t="s">
+      <c r="IY1" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="IU1" s="16" t="s">
+      <c r="IZ1" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="IV1" s="16" t="s">
+      <c r="JA1" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="IW1" s="16" t="s">
+      <c r="JB1" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="IX1" s="16" t="s">
+      <c r="JC1" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="IY1" s="16" t="s">
+      <c r="JD1" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="IZ1" s="16" t="s">
+      <c r="JE1" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="JA1" s="16" t="s">
+      <c r="JF1" s="7" t="s">
         <v>217</v>
       </c>
     </row>

--- a/Template/Export/Sari_Cases_3.xlsx
+++ b/Template/Export/Sari_Cases_3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7B0CBA-E773-4B80-80F9-7EBCCFD7413C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
   <si>
     <t>ID</t>
   </si>
@@ -828,12 +829,24 @@
   </si>
   <si>
     <t>Disgeusia</t>
+  </si>
+  <si>
+    <t>condicion_egreso_evolucion</t>
+  </si>
+  <si>
+    <t>condicion_egreso_fecha_evolucion</t>
+  </si>
+  <si>
+    <t>condicion_egreso_otro_evolucion</t>
+  </si>
+  <si>
+    <t>total_fallecido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-40A]dd/mmmm/yyyy;@"/>
@@ -856,7 +869,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,6 +879,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -925,6 +944,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,16 +1286,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:JF1"/>
+  <dimension ref="A1:JJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
@@ -1403,125 +1426,129 @@
     <col min="145" max="145" width="15.25" style="4" bestFit="1" customWidth="1"/>
     <col min="146" max="147" width="15.25" style="4" customWidth="1"/>
     <col min="148" max="148" width="25.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="18.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="150" max="151" width="20.625" style="4" customWidth="1"/>
-    <col min="152" max="152" width="16.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="25.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="30.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="18.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="20.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="19.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="25.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="18.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="18.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="17.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="19.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="25.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="18.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="20.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="26.75" style="3" customWidth="1"/>
-    <col min="171" max="171" width="30.5" style="3" customWidth="1"/>
-    <col min="172" max="172" width="22.125" style="3" customWidth="1"/>
-    <col min="173" max="173" width="18.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="16.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="15.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="17.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="16.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="15.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="17.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="15.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="17.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="13.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="20.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="26.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="18.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="19.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="19.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="23.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="19.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="15.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="20.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="21.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="18.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="15.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="13.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="20.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="26.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="19.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="19.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="23.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="19.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="15.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="20.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="21.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="18.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="15.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="13.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="20.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="26.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="13.625" style="11" customWidth="1"/>
-    <col min="219" max="219" width="19.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="19.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="23.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="19.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="15.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="20.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="21.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="18.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="15.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="13.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="20.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="26.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="12.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="19.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="19.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="23.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="19.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="15.375" style="11" customWidth="1"/>
-    <col min="237" max="237" width="20.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="21.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="18.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="15.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="13.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="20.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="26.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="19.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="19.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="23.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="19.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="15.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="20.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="21.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="18.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="15.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="13.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="20.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="26.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="12.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="19.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="19.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="23.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="19.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="15.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="20.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="21.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="18.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="15.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="25.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="31.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="30.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="13.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="18.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="154" max="155" width="20.625" style="4" customWidth="1"/>
+    <col min="156" max="156" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="25.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="30.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="20.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="18.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="19.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="25.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="23" style="4" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="18.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="19.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="25.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="172" max="173" width="20.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="26.75" style="3" customWidth="1"/>
+    <col min="175" max="175" width="30.5" style="3" customWidth="1"/>
+    <col min="176" max="176" width="22.125" style="3" customWidth="1"/>
+    <col min="177" max="177" width="18.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="15.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="15.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="15.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="13.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="20.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="18.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="15.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="20.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="15.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="20.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="13.625" style="11" customWidth="1"/>
+    <col min="223" max="223" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="15.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="20.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="12.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="15.375" style="11" customWidth="1"/>
+    <col min="241" max="241" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="15.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="20.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="15.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="20.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="26.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="12.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="19.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="19.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="23.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="19.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="20.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="21.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="15.875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:266" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:270" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1966,358 +1993,370 @@
       <c r="ER1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="ES1" s="13" t="s">
+      <c r="ES1" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="ET1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="EU1" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="EV1" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="EW1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="ET1" s="6" t="s">
+      <c r="EX1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="EU1" s="6" t="s">
+      <c r="EY1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="EV1" s="6" t="s">
+      <c r="EZ1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="EW1" s="6" t="s">
+      <c r="FA1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="EX1" s="6" t="s">
+      <c r="FB1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="EY1" s="13" t="s">
+      <c r="FC1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="EZ1" s="6" t="s">
+      <c r="FD1" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="FA1" s="13" t="s">
+      <c r="FE1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="FB1" s="6" t="s">
+      <c r="FF1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="FC1" s="13" t="s">
+      <c r="FG1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="FD1" s="6" t="s">
+      <c r="FH1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="FE1" s="13" t="s">
+      <c r="FI1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="FF1" s="6" t="s">
+      <c r="FJ1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="FG1" s="6" t="s">
+      <c r="FK1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="FH1" s="13" t="s">
+      <c r="FL1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="FI1" s="18" t="s">
+      <c r="FM1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="FJ1" s="13" t="s">
+      <c r="FN1" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="FK1" s="6" t="s">
+      <c r="FO1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="FL1" s="6" t="s">
+      <c r="FP1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="FM1" s="6" t="s">
+      <c r="FQ1" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="FN1" s="6" t="s">
+      <c r="FR1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="FO1" s="6" t="s">
+      <c r="FS1" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="FP1" s="13" t="s">
+      <c r="FT1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="FQ1" s="6" t="s">
+      <c r="FU1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="FR1" s="6" t="s">
+      <c r="FV1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="FS1" s="6" t="s">
+      <c r="FW1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="FT1" s="6" t="s">
+      <c r="FX1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="FU1" s="6" t="s">
+      <c r="FY1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="FV1" s="6" t="s">
+      <c r="FZ1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="FW1" s="6" t="s">
+      <c r="GA1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="FX1" s="6" t="s">
+      <c r="GB1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="FY1" s="6" t="s">
+      <c r="GC1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="FZ1" s="6" t="s">
+      <c r="GD1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="GA1" s="6" t="s">
+      <c r="GE1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="GB1" s="6" t="s">
+      <c r="GF1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="GC1" s="6" t="s">
+      <c r="GG1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="GD1" s="6" t="s">
+      <c r="GH1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="GE1" s="6" t="s">
+      <c r="GI1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="GF1" s="6" t="s">
+      <c r="GJ1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="GG1" s="7" t="s">
+      <c r="GK1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="GH1" s="7" t="s">
+      <c r="GL1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="GI1" s="7" t="s">
+      <c r="GM1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="GJ1" s="8" t="s">
+      <c r="GN1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="GK1" s="9" t="s">
+      <c r="GO1" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="GL1" s="9" t="s">
+      <c r="GP1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="GM1" s="7" t="s">
+      <c r="GQ1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="GN1" s="7" t="s">
+      <c r="GR1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="GO1" s="7" t="s">
+      <c r="GS1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="GP1" s="7" t="s">
+      <c r="GT1" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="GQ1" s="7" t="s">
+      <c r="GU1" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="GR1" s="7" t="s">
+      <c r="GV1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="GS1" s="7" t="s">
+      <c r="GW1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="GT1" s="7" t="s">
+      <c r="GX1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="GU1" s="7" t="s">
+      <c r="GY1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="GV1" s="7" t="s">
+      <c r="GZ1" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="GW1" s="8" t="s">
+      <c r="HA1" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="GX1" s="9" t="s">
+      <c r="HB1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="GY1" s="9" t="s">
+      <c r="HC1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="GZ1" s="7" t="s">
+      <c r="HD1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="HA1" s="7" t="s">
+      <c r="HE1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="HB1" s="7" t="s">
+      <c r="HF1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="HC1" s="7" t="s">
+      <c r="HG1" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="HD1" s="7" t="s">
+      <c r="HH1" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="HE1" s="7" t="s">
+      <c r="HI1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="HF1" s="7" t="s">
+      <c r="HJ1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="HG1" s="7" t="s">
+      <c r="HK1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="HH1" s="7" t="s">
+      <c r="HL1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="HI1" s="7" t="s">
+      <c r="HM1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="HJ1" s="8" t="s">
+      <c r="HN1" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="HK1" s="9" t="s">
+      <c r="HO1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="HL1" s="9" t="s">
+      <c r="HP1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="HM1" s="7" t="s">
+      <c r="HQ1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="HN1" s="7" t="s">
+      <c r="HR1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="HO1" s="7" t="s">
+      <c r="HS1" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="HP1" s="7" t="s">
+      <c r="HT1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="HQ1" s="7" t="s">
+      <c r="HU1" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="HR1" s="7" t="s">
+      <c r="HV1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="HS1" s="7" t="s">
+      <c r="HW1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="HT1" s="7" t="s">
+      <c r="HX1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="HU1" s="7" t="s">
+      <c r="HY1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="HV1" s="7" t="s">
+      <c r="HZ1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="HW1" s="8" t="s">
+      <c r="IA1" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="HX1" s="9" t="s">
+      <c r="IB1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="HY1" s="9" t="s">
+      <c r="IC1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="HZ1" s="7" t="s">
+      <c r="ID1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="IA1" s="7" t="s">
+      <c r="IE1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="IB1" s="7" t="s">
+      <c r="IF1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="IC1" s="7" t="s">
+      <c r="IG1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="ID1" s="7" t="s">
+      <c r="IH1" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="IE1" s="7" t="s">
+      <c r="II1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="IF1" s="7" t="s">
+      <c r="IJ1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="IG1" s="7" t="s">
+      <c r="IK1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="IH1" s="7" t="s">
+      <c r="IL1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="II1" s="7" t="s">
+      <c r="IM1" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="IJ1" s="8" t="s">
+      <c r="IN1" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="IK1" s="9" t="s">
+      <c r="IO1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="IL1" s="9" t="s">
+      <c r="IP1" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="IM1" s="7" t="s">
+      <c r="IQ1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="IN1" s="7" t="s">
+      <c r="IR1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="IO1" s="7" t="s">
+      <c r="IS1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="IP1" s="7" t="s">
+      <c r="IT1" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="IQ1" s="7" t="s">
+      <c r="IU1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="IR1" s="7" t="s">
+      <c r="IV1" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="IS1" s="7" t="s">
+      <c r="IW1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="IT1" s="7" t="s">
+      <c r="IX1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="IU1" s="7" t="s">
+      <c r="IY1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="IV1" s="7" t="s">
+      <c r="IZ1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="IW1" s="8" t="s">
+      <c r="JA1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="IX1" s="9" t="s">
+      <c r="JB1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="IY1" s="9" t="s">
+      <c r="JC1" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="IZ1" s="7" t="s">
+      <c r="JD1" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="JA1" s="7" t="s">
+      <c r="JE1" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="JB1" s="7" t="s">
+      <c r="JF1" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="JC1" s="7" t="s">
+      <c r="JG1" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="JD1" s="7" t="s">
+      <c r="JH1" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="JE1" s="7" t="s">
+      <c r="JI1" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="JF1" s="7" t="s">
+      <c r="JJ1" s="7" t="s">
         <v>217</v>
       </c>
     </row>
